--- a/template/Destination_Template.xlsx
+++ b/template/Destination_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sky Ng\xampp\htdocs\synctronix\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jihbi\xampp\htdocs\synctronix\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F2CC98-5193-46AB-BA7E-1CF2D84617EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B567F45D-E6E2-4B63-B2CA-C17650452C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8880" xr2:uid="{9341FD95-CFC6-421C-9B6B-E00C8B5A4387}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9341FD95-CFC6-421C-9B6B-E00C8B5A4387}"/>
   </bookViews>
   <sheets>
     <sheet name="customermaster" sheetId="1" r:id="rId1"/>
@@ -394,34 +394,34 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
